--- a/data/extracted_data/raw_round2/data/Schultz_etal_2013_Fig1.xlsx
+++ b/data/extracted_data/raw_round2/data/Schultz_etal_2013_Fig1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{20021B64-E71C-404B-AE66-73402D1998E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C67F2A1A-415D-D946-9B50-A9562BAC4720}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{20021B64-E71C-404B-AE66-73402D1998E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B503B63-BA65-CB41-9538-28CF3E15B376}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{78FF9F67-5D14-054F-A335-842C2EABB9CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="14">
   <si>
     <t>Muscle</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>phase</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -128,10 +131,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AA4E95-E48A-3240-BB6D-43A4CFC2D0C1}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B61"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,6 +457,9 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
